--- a/CostEstimation.xlsx
+++ b/CostEstimation.xlsx
@@ -93,9 +93,6 @@
     <t>Total cost per week($)</t>
   </si>
   <si>
-    <t>Total cost for three sprints($)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3.3 Iteration Execution</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve">  4.3Application Implementation</t>
+  </si>
+  <si>
+    <t>Total cost for six sprints($)</t>
   </si>
 </sst>
 </file>
@@ -198,7 +198,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -235,11 +235,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -525,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,18 +1113,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1159,24 +1160,26 @@
         <v>23</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
-        <v>400</v>
+      <c r="B7" s="23">
+        <v>340</v>
       </c>
       <c r="C7" s="18">
         <v>8</v>
       </c>
       <c r="D7" s="19">
-        <v>3200</v>
+        <f>B7*C7</f>
+        <v>2720</v>
       </c>
       <c r="E7" s="20">
-        <v>19200</v>
+        <f>D7*12</f>
+        <v>32640</v>
       </c>
       <c r="K7" s="9"/>
     </row>
@@ -1184,19 +1187,19 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
-        <v>380</v>
+      <c r="B8" s="23">
+        <v>340</v>
       </c>
       <c r="C8" s="18">
         <v>10</v>
       </c>
       <c r="D8" s="19">
-        <f t="shared" ref="D8:D19" si="0">B8*C8</f>
-        <v>3800</v>
+        <f t="shared" ref="D8:D9" si="0">B8*C8</f>
+        <v>3400</v>
       </c>
       <c r="E8" s="20">
-        <f t="shared" ref="E8:E19" si="1">D8*6</f>
-        <v>22800</v>
+        <f t="shared" ref="E8:E19" si="1">D8*12</f>
+        <v>40800</v>
       </c>
       <c r="K8" s="9"/>
     </row>
@@ -1204,19 +1207,19 @@
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="17">
-        <v>410</v>
+      <c r="B9" s="23">
+        <v>340</v>
       </c>
       <c r="C9" s="18">
         <v>12</v>
       </c>
       <c r="D9" s="19">
         <f t="shared" si="0"/>
-        <v>4920</v>
+        <v>4080</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="1"/>
-        <v>29520</v>
+        <v>48960</v>
       </c>
       <c r="K9" s="9"/>
     </row>
@@ -1226,10 +1229,10 @@
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8:D19" si="2">B10*C10</f>
         <v>0</v>
       </c>
       <c r="E10" s="20">
@@ -1244,7 +1247,7 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20">
@@ -1254,14 +1257,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="20">
@@ -1273,14 +1276,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13" s="20">
@@ -1298,19 +1301,19 @@
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17">
-        <v>365</v>
+      <c r="B14" s="23">
+        <v>340</v>
       </c>
       <c r="C14" s="18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="19">
-        <f t="shared" si="0"/>
-        <v>5110</v>
+        <f t="shared" si="2"/>
+        <v>4080</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="1"/>
-        <v>30660</v>
+        <v>48960</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>6</v>
@@ -1325,10 +1328,10 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15" s="20">
@@ -1345,14 +1348,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16" s="20">
@@ -1369,14 +1372,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17" s="20">
@@ -1395,19 +1398,19 @@
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
-        <v>415</v>
+      <c r="B18" s="23">
+        <v>340</v>
       </c>
       <c r="C18" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="19">
-        <f t="shared" si="0"/>
-        <v>4980</v>
+        <f t="shared" si="2"/>
+        <v>3400</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="1"/>
-        <v>29880</v>
+        <v>40800</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -1421,19 +1424,23 @@
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
-        <v>350</v>
+      <c r="B19" s="23">
+        <v>340</v>
       </c>
       <c r="C19" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="19">
-        <f t="shared" si="0"/>
-        <v>4200</v>
+        <f t="shared" si="2"/>
+        <v>3740</v>
       </c>
       <c r="E19" s="20">
         <f t="shared" si="1"/>
-        <v>25200</v>
+        <v>44880</v>
+      </c>
+      <c r="H19" s="23">
+        <f>SUM(H14:H18)</f>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1443,9 +1450,9 @@
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="22">
-        <f>SUM(E7,E8,E9,E10,E11,E12,E13,E14,E15,E16,E17,E18,E19)</f>
-        <v>157260</v>
+      <c r="E20" s="24">
+        <f>SUM(E7:E19)</f>
+        <v>257040</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">

--- a/CostEstimation.xlsx
+++ b/CostEstimation.xlsx
@@ -235,12 +235,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -527,7 +527,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,8 +538,8 @@
     <col min="4" max="4" width="25.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1113,18 +1113,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1167,7 +1167,7 @@
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>340</v>
       </c>
       <c r="C7" s="18">
@@ -1187,7 +1187,7 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>340</v>
       </c>
       <c r="C8" s="18">
@@ -1207,7 +1207,7 @@
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>340</v>
       </c>
       <c r="C9" s="18">
@@ -1232,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="19">
-        <f t="shared" ref="D8:D19" si="2">B10*C10</f>
+        <f t="shared" ref="D10:D19" si="2">B10*C10</f>
         <v>0</v>
       </c>
       <c r="E10" s="20">
@@ -1301,7 +1301,7 @@
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>340</v>
       </c>
       <c r="C14" s="18">
@@ -1398,7 +1398,7 @@
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>340</v>
       </c>
       <c r="C18" s="18">
@@ -1424,7 +1424,7 @@
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>340</v>
       </c>
       <c r="C19" s="18">
@@ -1438,7 +1438,7 @@
         <f t="shared" si="1"/>
         <v>44880</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <f>SUM(H14:H18)</f>
         <v>340</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <f>SUM(E7:E19)</f>
         <v>257040</v>
       </c>
